--- a/noise_data_op/noise_Bitflip_1_to_6_qubits_op.xlsx
+++ b/noise_data_op/noise_Bitflip_1_to_6_qubits_op.xlsx
@@ -15,6 +15,8 @@
     <sheet name="4qbit_oracle" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="5 qubits" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="5qbit_oracle" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="6 qubits" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="6qbit_oracle" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,38 +510,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>95.22199999999999</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>95.12</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>95.092</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>95.108</v>
+        <v>99.27</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>95.146</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>95.126</v>
+        <v>98.77</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>95.146</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>95.17400000000001</v>
+        <v>98.31</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>95.242</v>
+        <v>97.87</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>95.10599999999999</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>95.112</t>
+          <t>97.91</t>
         </is>
       </c>
     </row>
@@ -548,38 +550,1399 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>50.004</v>
+        <v>49.85</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>50.112</v>
+        <v>49.49</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>49.718</v>
+        <v>49.49</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>49.772</v>
+        <v>50.37</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>49.948</v>
+        <v>50.46000000000001</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>49.542</v>
+        <v>50.1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>50.008</v>
+        <v>50.33</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>49.862</v>
+        <v>50.74999999999999</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>50.09200000000001</v>
+        <v>50.28</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>50.018</v>
+        <v>50.22</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>50.12799999999999</t>
+          <t>49.99</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level oracle calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>7.022471910112359</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>364.5833333333334</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>476.1904761904761</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>457.516339869281</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>372.3404255319149</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>443.0379746835444</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>469.7986577181208</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>454.5454545454545</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>411.7647058823529</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>463.5761589403973</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>5.00400320256205</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>151.5151515151515</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>144.0922190201729</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>144.0922190201729</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>167.7852348993289</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>185.1851851851852</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>160.2564102564102</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>145.7725947521866</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>167.2240802675585</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>160.7717041800643</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>148.3679525222552</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4.008819402685909</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>61.72839506172839</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>77.66990291262135</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>89.68609865470852</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>91.11617312072892</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>85.83690987124463</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>87.91208791208791</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>87.91208791208791</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>85.47008547008546</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>80.32128514056225</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>84.21052631578948</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4.165364990107258</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>54.6448087431694</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>63.49206349206349</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>62.20839813374806</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>66.88963210702342</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>59.79073243647235</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>67.00167504187604</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>60.51437216338881</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>65.04065040650407</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>63.59300476947536</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62.79434850863422</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>3.074400491904079</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>26.26970227670753</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>37.35990037359901</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>39.63011889035667</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>39.0625</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>37.40648379052369</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>37.40648379052369</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>37.40648379052369</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>37.3134328358209</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>39.01170351105331</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38.26530612244898</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>3.000600120024004</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>24.13515687851971</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>32.96703296703296</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>33.48214285714286</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>32.18884120171673</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>31.74603174603175</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>34.09090909090909</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>31.18503118503119</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>30.99173553719008</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>31.91489361702128</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31.446540880503147</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3.041670891209572</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>22.23869532987398</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>26.97841726618705</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>25.75107296137339</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>27.42230347349177</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>27.002700270027</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>26.92998204667864</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>28.70813397129186</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>28.46299810246679</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>28.81844380403458</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27.77777777777778</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>3.178302786312109</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>23.60346184107003</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>23.92344497607656</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>24.89626556016598</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>23.92344497607656</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>24.50980392156863</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>24.95840266222962</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>24.07704654895666</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>24.27184466019417</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23.80952380952381</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>3.425048521520722</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>19.41747572815535</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>21.1416490486258</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>21.08222066057625</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>20.70393374741201</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>20.89136490250696</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>21.09704641350211</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>21.72338884866039</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>21.75489485134155</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>21.75489485134155</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.994134897360702</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2.268602540834846</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>7.507507507507508</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>11.38303927148549</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>12.83697047496791</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>12.7959053103007</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>13.01236174365647</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>12.94498381877023</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>13.05483028720627</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>12.56281407035176</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>12.91989664082687</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12.56281407035176</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2.182929491377429</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>7.27802037845706</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10.88139281828074</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>11.56737998843262</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>11.68224299065421</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>11.66180758017493</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>11.94029850746269</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>11.72332942555686</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>11.59420289855072</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>11.5807759119861</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11.286681715575622</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2.108814846056516</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>6.78195998643608</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>9.666505558240695</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>10.6439595529537</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>10.55966209081309</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>10.61571125265393</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>10.25115325474116</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>10.47668936616029</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>10.71237279057311</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>10.81081081081081</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10.700909577314071</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2.055921052631579</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>6.453694740238786</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9.199632014719411</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>9.474182851729038</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>9.555661729574773</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>9.852216748768472</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>9.975062344139651</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>9.638554216867471</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>9.765625</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>9.789525208027412</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9.541984732824428</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2.023472278429785</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>6.058770069675856</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8.620689655172415</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>8.673026886383347</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>9.350163627863488</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>9.302325581395349</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>8.822232024702251</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>9.289363678588018</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>9.385265133740027</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>8.92458723784025</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9.136592051164916</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2.007024586051179</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>5.812263876780006</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7.766990291262136</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>8.609556607834696</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>8.442380751371887</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>8.350730688935283</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>8.684324793747287</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>8.557980316645272</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>8.097165991902834</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>8.624407072013799</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8.587376556462</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>5.747126436781609</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>7.538635506973238</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>7.920792079207921</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>8.166598611678236</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>7.993605115907274</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>8.113590263691684</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>7.955449482895784</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>7.886435331230284</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8.110300081103</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2.005414619472576</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>5.506607929515418</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>7.059654076950229</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>7.668711656441718</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>7.630675314765357</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>7.564296520423601</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>7.630675314765357</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>7.374631268436578</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>7.763975155279503</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>7.535795026375283</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7.550018875047187</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2.017959842599132</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>5.299417064122946</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>6.52954619653934</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>6.89893066574681</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>7.163323782234957</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>7.057163020465773</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>7.037297677691766</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>7.296607077708865</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>7.01508242721852</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>7.256894049346879</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.117437722419929</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2.051702913418137</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>5.254860746190226</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>6.379585326953748</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>6.615944426066821</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>6.675567423230975</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>6.756756756756757</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>6.825938566552901</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>6.865774116031583</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>6.618133686300463</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>6.800408024481469</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6.759040216289287</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2.089427496865859</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>5.063291139240507</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>6.287331027978623</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>6.489292667099286</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>6.343165239454488</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>6.493506493506493</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>6.341154090044388</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>6.331117442228553</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>6.395906619763352</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>6.462035541195476</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6.321112515802781</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2.138808683563256</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>4.888780249327793</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>6.038647342995169</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>6.153846153846154</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>6.207324643078833</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>6.090133982947624</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>6.121824303642486</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>6.022282445046673</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>6.011421701232342</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>6.129328838492185</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6.108735491753207</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2.205558006175562</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4.670714619336758</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>5.61955605507165</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>5.929439667951379</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>5.777007510109764</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>5.839416058394161</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>5.822416302765648</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>5.778676683039584</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>5.780346820809249</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>5.841121495327103</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5.672149744753262</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2.289901534234028</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4.705882352941177</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5.372011818426</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>5.636978579481398</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>5.649717514124294</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>5.566379070414695</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>5.681818181818182</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>5.451076587626056</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>5.665722379603399</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5.672149744753262</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>2.357378595002357</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>5.224660397074191</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>5.439216752787599</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>5.359056806002144</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>5.286809410520751</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>5.220569042025581</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>5.221932114882507</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>5.289605924358635</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>5.376344086021505</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>2.480774001488464</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4.479283314669653</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4.832085044696787</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>5.154639175257732</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>5.166623611469904</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>5.232862375719519</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>5.169294391315585</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>5.085176709890669</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>5.142710208279763</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>5.215123859191656</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5.107252298263535</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2.585649644473174</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4.404316229905307</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>4.801920768307323</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>4.949269982677556</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>4.945598417408506</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>4.910385465259023</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>4.855547462976451</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>4.894762604013706</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>5.017561465127947</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>5.035246727089628</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4.981320049813201</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2.772002772002772</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4.358247984310308</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>4.585052728106374</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>4.786979415988511</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>4.665267086540704</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>4.652244708071644</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>4.735969689793985</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>4.813477737665464</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>4.772130756382725</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>4.708097928436912</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4.7281323877068555</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>2.945508100147276</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>4.303851947493007</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>4.520795660036167</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>4.585052728106374</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>4.561003420752566</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>4.641448131817127</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>4.532064355313845</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>4.515692029803567</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>4.601932811780948</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>4.57351932311914</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4.571428571428571</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>3.157562361856647</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>4.178854993731718</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>4.359197907585004</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>4.434589800443459</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>4.449388209121246</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>4.4543429844098</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>4.41306266548985</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>4.476275738585497</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>4.371584699453552</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>4.463289444320464</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4.4732721986132855</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>3.380091262464086</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4.15541242468315</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>4.201680672268908</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>4.259850905218317</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>4.277159965782721</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>4.231908590774439</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>4.270766602605168</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>4.234596654668643</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>4.349717268377556</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>4.331817197314273</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>4.303851947493007</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3.619254433586681</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>4.033071183706393</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>4.156275976724855</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4.221190375685944</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>4.086636697997548</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>4.141644232760406</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>4.058441558441558</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>4.061738424045491</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>4.203446826397646</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>4.151961801951422</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>4.11522633744856</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3.961965134706815</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>3.998400639744102</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>3.982477100756671</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>3.961965134706815</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>3.989626969878316</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>4.004004004004004</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>3.988035892323031</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>4.11946446961895</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>4.001600640256102</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>3.991219317501497</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>3.9666798889329633</t>
         </is>
       </c>
     </row>
@@ -669,38 +2032,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.100354959988238</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.102607232968881</v>
+        <v>2.006420545746388</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.103226349219703</v>
+        <v>2.010252286661976</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.102872523867603</v>
+        <v>2.014707363755415</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.102032665587623</v>
+        <v>2.017145738779627</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.102474612619053</v>
+        <v>2.024906348081401</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.102032665587623</v>
+        <v>2.03190084323885</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.101414251791456</v>
+        <v>2.034381039568711</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>2.099913903529955</v>
+        <v>2.043527127822622</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2.102916745526044</v>
+        <v>2.040608101214162</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>2.102784086130036</t>
+          <t>2.042692268409764</t>
         </is>
       </c>
     </row>
@@ -709,38 +2072,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3.999680025597952</v>
+        <v>4.012036108324975</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3.991060025542784</v>
+        <v>4.04122044857547</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4.022687960094936</v>
+        <v>4.04122044857547</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.018323555412682</v>
+        <v>3.970617431010522</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.00416433090414</v>
+        <v>3.963535473642489</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.036978725122118</v>
+        <v>3.992015968063872</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3.999360102383618</v>
+        <v>3.973773097556129</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>4.011070554731058</v>
+        <v>3.940886699507389</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>3.992653517527749</v>
+        <v>3.977724741447892</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>3.998560518213443</v>
+        <v>3.982477100756671</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>3.989786147462496</t>
+          <t>4.000800160032006</t>
         </is>
       </c>
     </row>
@@ -830,38 +2193,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>57.826</v>
+        <v>95.09</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>57.05</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>57.042</v>
+        <v>89.72</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>58.91</v>
+        <v>87.27000000000001</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>57.972</v>
+        <v>85.56</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>57.888</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>57.998</v>
+        <v>81.14</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>57.98</v>
+        <v>78.97</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>57.724</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>57.714</v>
+        <v>74.7</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>58.738</t>
+          <t>74.58</t>
         </is>
       </c>
     </row>
@@ -870,38 +2233,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>78.134</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>77.39</v>
+        <v>98.84</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>78.726</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>78.04600000000001</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>77.83799999999999</v>
+        <v>94.44</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>78.376</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>76.712</v>
+        <v>91.53</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>77.13</v>
+        <v>91.78</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>77.486</v>
+        <v>89.55</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>79.214</v>
+        <v>89.92</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>78.876</t>
+          <t>88.67</t>
         </is>
       </c>
     </row>
@@ -910,38 +2273,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>70.48999999999999</v>
+        <v>84.56</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>70.19800000000001</v>
+        <v>83.11</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>70.792</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>69.926</v>
+        <v>81.89</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>71.02000000000001</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>70.39800000000001</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>70.248</v>
+        <v>79.71000000000001</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>70.69199999999999</v>
+        <v>78.13</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>69.892</v>
+        <v>79.14999999999999</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>70.38600000000001</v>
+        <v>77.14</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>70.696</t>
+          <t>76.67</t>
         </is>
       </c>
     </row>
@@ -950,38 +2313,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>49.744</v>
+        <v>49.95</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49.726</v>
+        <v>49.75</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>49.826</v>
+        <v>50.12</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>49.914</v>
+        <v>49.76</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>50.27199999999999</v>
+        <v>50.23</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>49.854</v>
+        <v>50.05</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>49.858</v>
+        <v>49.06</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>50.06</v>
+        <v>50.23</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>49.916</v>
+        <v>50.59</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>50.1</v>
+        <v>50.18</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49.986000000000004</t>
+          <t>48.99</t>
         </is>
       </c>
     </row>
@@ -1071,38 +2434,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>5.187977726282295</v>
+        <v>3.154905878641287</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.25854513584575</v>
+        <v>3.26726203441516</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5.259282633848743</v>
+        <v>3.343736067766384</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.092514004413513</v>
+        <v>3.437607425232038</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.17491202649555</v>
+        <v>3.506311360448808</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.182421227197347</v>
+        <v>3.618817852834741</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5.172592158350287</v>
+        <v>3.697313285679074</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5.174197999310107</v>
+        <v>3.798910978852729</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5.19714503499411</v>
+        <v>3.837298541826553</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5.198045534878885</v>
+        <v>4.016064257028113</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>5.107426197691443</t>
+          <t>4.022526146419952</t>
         </is>
       </c>
     </row>
@@ -1111,38 +2474,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.559705121969949</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2.584313218762114</v>
+        <v>2.023472278429785</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.540456774127988</v>
+        <v>2.049180327868852</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.562591292314789</v>
+        <v>2.071680132587529</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.569439091446337</v>
+        <v>2.117746717492588</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.551801571909768</v>
+        <v>2.139952921035737</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.607154030660132</v>
+        <v>2.185075931388616</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.59302476338649</v>
+        <v>2.179123992155154</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>2.581111426580285</v>
+        <v>2.233389168062535</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2.524806221122529</v>
+        <v>2.224199288256228</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>2.535625538820427</t>
+          <t>2.255554302469832</t>
         </is>
       </c>
     </row>
@@ -1151,38 +2514,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.837281883955171</v>
+        <v>2.365184484389782</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2.849084019487734</v>
+        <v>2.406449284081338</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.825177986213131</v>
+        <v>2.410800385728061</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.86016646168807</v>
+        <v>2.442300647209672</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.81610813855252</v>
+        <v>2.471271469170889</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.840989800846615</v>
+        <v>2.498750624687656</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.847056143947158</v>
+        <v>2.509095471082674</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.829174446896396</v>
+        <v>2.559836170485089</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2.861557832083786</v>
+        <v>2.526847757422616</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.841474156792544</v>
+        <v>2.592688618096966</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2.8290143713930065</t>
+          <t>2.6085822355549757</t>
         </is>
       </c>
     </row>
@@ -1191,38 +2554,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4.020585397233837</v>
+        <v>4.004004004004004</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.022040783493544</v>
+        <v>4.020100502512562</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.013968610765464</v>
+        <v>3.990422984836393</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.00689185398886</v>
+        <v>4.019292604501608</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.978357733927434</v>
+        <v>3.981684252438781</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.011714205480001</v>
+        <v>3.996003996003996</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>4.011392354286173</v>
+        <v>4.076640847941296</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>3.995205753096284</v>
+        <v>3.981684252438781</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>4.006731308598446</v>
+        <v>3.95335046451868</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>3.992015968063872</v>
+        <v>3.985651654045436</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4.001120313687832</t>
+          <t>4.082465809348847</t>
         </is>
       </c>
     </row>
@@ -1312,38 +2675,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>8.278</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>8.282</v>
+        <v>79.53</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8.446</v>
+        <v>65.61</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.619999999999999</v>
+        <v>54.17999999999999</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.718</v>
+        <v>46.22</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.436</v>
+        <v>37.71</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>8.224</v>
+        <v>33.05</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>8.4</v>
+        <v>27.96</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>8.309999999999999</v>
+        <v>25.36</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>8.390000000000001</v>
+        <v>22.61</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>8.302</t>
+          <t>19.439999999999998</t>
         </is>
       </c>
     </row>
@@ -1352,38 +2715,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>17.742</v>
+        <v>94.63</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>17.12</v>
+        <v>83.16</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>18.188</v>
+        <v>71.55</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16.102</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>17.192</v>
+        <v>55.55</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>17.016</v>
+        <v>49.13</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>16.91</v>
+        <v>45.58</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>17.638</v>
+        <v>36.05</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>16.834</v>
+        <v>38.34</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>17.604</v>
+        <v>32.72</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>16.448</t>
+          <t>32.910000000000004</t>
         </is>
       </c>
     </row>
@@ -1392,38 +2755,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>31.682</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>32.354</v>
+        <v>87.77000000000001</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>32.588</v>
+        <v>82.89</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>32.66</v>
+        <v>76.55999999999999</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>33.472</v>
+        <v>72.78</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>34.48</v>
+        <v>65.98</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>32.884</v>
+        <v>63.54</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>32.438</v>
+        <v>62.27</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>32.668</v>
+        <v>55.91</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>33.67</v>
+        <v>52.98</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32.891999999999996</t>
+          <t>50.14999999999999</t>
         </is>
       </c>
     </row>
@@ -1432,38 +2795,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>37.224</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>37.098</v>
+        <v>93.89</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>36.418</v>
+        <v>88.23</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>37.634</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>37.428</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>36.908</v>
+        <v>73.13</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>38.086</v>
+        <v>70.34</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>38.32</v>
+        <v>66.36999999999999</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>38.348</v>
+        <v>61.14000000000001</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>37.254</v>
+        <v>56.64</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37.846000000000004</t>
+          <t>57.589999999999996</t>
         </is>
       </c>
     </row>
@@ -1472,38 +2835,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41.758</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>41.848</v>
+        <v>89.56</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>41.582</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>42.186</v>
+        <v>80.05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>42.17</v>
+        <v>75.84</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>41.792</v>
+        <v>72.11</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>41.68</v>
+        <v>68.03</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>41.828</v>
+        <v>64.63</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>41.544</v>
+        <v>63.07000000000001</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>41.668</v>
+        <v>61.14000000000001</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41.252</t>
+          <t>56.36</t>
         </is>
       </c>
     </row>
@@ -1512,38 +2875,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45.274</v>
+        <v>84.27</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44.586</v>
+        <v>79.91</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44.472</v>
+        <v>77.08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45.356</v>
+        <v>72.75</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44.47</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44.96</v>
+        <v>68.13</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>44.464</v>
+        <v>64.53999999999999</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>44.822</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45.022</v>
+        <v>60.46</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45.068</v>
+        <v>57.52</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45.232</t>
+          <t>55.36</t>
         </is>
       </c>
     </row>
@@ -1552,38 +2915,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>48.178</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>48.346</v>
+        <v>65.31</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>47.478</v>
+        <v>64.2</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>47.196</v>
+        <v>62.58000000000001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>47.398</v>
+        <v>60.25</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>47.61</v>
+        <v>59.37</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>47.926</v>
+        <v>58.1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>48.084</v>
+        <v>57.11000000000001</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>47.85</v>
+        <v>56.3</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>48.046</v>
+        <v>53.53</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>47.636</t>
+          <t>52.93</t>
         </is>
       </c>
     </row>
@@ -1592,38 +2955,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>49.854</v>
+        <v>50.51</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>49.756</v>
+        <v>49.91</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>50.206</v>
+        <v>50.03999999999999</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>49.932</v>
+        <v>50.79</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>50.48</v>
+        <v>50.09</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>50.34800000000001</v>
+        <v>49.74</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>50.19</v>
+        <v>49.54</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>50.412</v>
+        <v>50.54</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>50.274</v>
+        <v>49.37</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>50.296</v>
+        <v>50.45</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49.504</t>
+          <t>50.05</t>
         </is>
       </c>
     </row>
@@ -1713,38 +3076,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>48.32085044696787</v>
+        <v>4.144648222982075</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>48.29751267809708</v>
+        <v>5.029548598013328</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>47.35969689793986</v>
+        <v>6.096631611034903</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46.40371229698376</v>
+        <v>7.382798080472499</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45.88208304657032</v>
+        <v>8.654262224145391</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>47.4158368895211</v>
+        <v>10.60726597719438</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>48.63813229571984</v>
+        <v>12.10287443267776</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>47.61904761904762</v>
+        <v>14.30615164520744</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>48.13477737665463</v>
+        <v>15.77287066246057</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>47.67580452920143</v>
+        <v>17.69128704113224</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>48.1811611659841</t>
+          <t>20.5761316872428</t>
         </is>
       </c>
     </row>
@@ -1753,38 +3116,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>16.9090294217112</v>
+        <v>3.170241995138962</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>17.52336448598131</v>
+        <v>3.607503607503608</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>16.49439190675171</v>
+        <v>4.19287211740042</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>18.6312259346665</v>
+        <v>4.658385093167702</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>17.44997673336436</v>
+        <v>5.4005400540054</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>17.63046544428773</v>
+        <v>6.106248727864848</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>17.74098166765228</v>
+        <v>6.581834137779728</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>17.00873114865631</v>
+        <v>8.321775312066574</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>17.82107639301414</v>
+        <v>7.82472613458529</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>17.04158145875937</v>
+        <v>9.168704156479215</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>18.23929961089494</t>
+          <t>9.11577028258888</t>
         </is>
       </c>
     </row>
@@ -1793,38 +3156,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6.312732782021337</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>6.181615874389565</v>
+        <v>2.278682921271505</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6.137228427642077</v>
+        <v>2.412836289057787</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.12369871402327</v>
+        <v>2.612330198537095</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.975143403441683</v>
+        <v>2.748007694421545</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.800464037122969</v>
+        <v>3.031221582297666</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>6.08198515995621</v>
+        <v>3.147623544224111</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>6.165608237252605</v>
+        <v>3.211819495744339</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>6.122199093914534</v>
+        <v>3.577177606868181</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>5.94000594000594</v>
+        <v>3.775009437523594</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6.080505898090721</t>
+          <t>3.988035892323031</t>
         </is>
       </c>
     </row>
@@ -1833,38 +3196,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>5.372877713303245</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.391126206264489</v>
+        <v>2.130152305889871</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5.49178977428744</v>
+        <v>2.266802674827156</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5.31434341287134</v>
+        <v>2.469440671687863</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.343593031954686</v>
+        <v>2.604505795025394</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.418879375745096</v>
+        <v>2.734855736359907</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>5.251273433807699</v>
+        <v>2.843332385555871</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>5.219206680584551</v>
+        <v>3.013409673045051</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>5.215395848544905</v>
+        <v>3.271180896303566</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>5.368551028077522</v>
+        <v>3.531073446327684</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5.284574327537917</t>
+          <t>3.4728251432540374</t>
         </is>
       </c>
     </row>
@@ -1873,38 +3236,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4.789501412902917</v>
+        <v>2.087900615930682</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4.779200917606576</v>
+        <v>2.233139794551139</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4.809773459670049</v>
+        <v>2.34192037470726</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.740909306404968</v>
+        <v>2.498438475952529</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.742708086317287</v>
+        <v>2.637130801687764</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.785604900459418</v>
+        <v>2.773540424351685</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>4.798464491362764</v>
+        <v>2.939879464941937</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>4.78148608587549</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>4.814172925091469</v>
+        <v>3.171079752655779</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>4.799846404915042</v>
+        <v>3.271180896303566</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4.84824978182876</t>
+          <t>3.5486160397444997</t>
         </is>
       </c>
     </row>
@@ -1913,38 +3276,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4.417546494676857</v>
+        <v>2.373323840037973</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4.485713004081999</v>
+        <v>2.50281566762608</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4.497211728728188</v>
+        <v>2.594706798131812</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.409559925919393</v>
+        <v>2.74914089347079</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.4974139869575</v>
+        <v>2.901494269548817</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.448398576512456</v>
+        <v>2.935564362248642</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>4.49802087081684</v>
+        <v>3.098853424233034</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>4.462094507161662</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>4.442272666696282</v>
+        <v>3.30797221303341</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>4.437738528445904</v>
+        <v>3.477051460361613</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4.4216483905199855</t>
+          <t>3.61271676300578</t>
         </is>
       </c>
     </row>
@@ -1953,38 +3316,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4.151272364979866</v>
+        <v>2.900232018561485</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.136846895296405</v>
+        <v>3.062318174858368</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4.212477357934201</v>
+        <v>3.115264797507788</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.237647258242224</v>
+        <v>3.195909236177692</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.219587324359678</v>
+        <v>3.319502074688797</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.200798151648813</v>
+        <v>3.36870473303015</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>4.173100196135709</v>
+        <v>3.442340791738382</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>4.159387738124948</v>
+        <v>3.502013657853265</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>4.179728317659352</v>
+        <v>3.552397868561279</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>4.162677434125629</v>
+        <v>3.736222678871661</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4.198505332101772</t>
+          <t>3.778575477045154</t>
         </is>
       </c>
     </row>
@@ -1993,38 +3356,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>4.011714205480001</v>
+        <v>3.959611958028113</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4.019615724736715</v>
+        <v>4.007212983370066</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.98358761900968</v>
+        <v>3.996802557953637</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4.005447408475527</v>
+        <v>3.937783028155149</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.961965134706815</v>
+        <v>3.992812936713915</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.972352427107333</v>
+        <v>4.020908725371934</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3.984857541342897</v>
+        <v>4.037141703673799</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>3.967309370784734</v>
+        <v>3.957261574990107</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>3.978199466921272</v>
+        <v>4.05104314360948</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>3.976459360585335</v>
+        <v>3.964321110009911</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4.040077569489334</t>
+          <t>3.996003996003996</t>
         </is>
       </c>
     </row>
@@ -2114,38 +3477,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.148</v>
+        <v>99.91</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.076</v>
+        <v>35.18</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.098</v>
+        <v>13.54</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.172</v>
+        <v>7.31</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.15</v>
+        <v>4.73</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.102</v>
+        <v>3.22</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>3.152</v>
+        <v>3.9</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.218</v>
+        <v>3.59</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>2.978</v>
+        <v>3.29</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>3.014</v>
+        <v>3.28</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>3.124</t>
+          <t>2.9499999999999997</t>
         </is>
       </c>
     </row>
@@ -2154,38 +3517,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6.244000000000001</v>
+        <v>96.19</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>6.2</v>
+        <v>36.64</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6.386</v>
+        <v>22.02</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.364</v>
+        <v>10.86</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.196</v>
+        <v>9.15</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.254</v>
+        <v>7.28</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.19</v>
+        <v>6.88</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>6.283999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>6.242</v>
+        <v>6.58</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>6.239999999999999</v>
+        <v>6.16</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>6.354</t>
+          <t>6.069999999999999</t>
         </is>
       </c>
     </row>
@@ -2194,38 +3557,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9.555999999999999</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.432</v>
+        <v>50.51</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9.481999999999999</v>
+        <v>31.92</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.516</v>
+        <v>21.24</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.278</v>
+        <v>14.34</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.513999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.134</v>
+        <v>10.55</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>9.375999999999999</v>
+        <v>10.73</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>9.432</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>9.336</v>
+        <v>9.52</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>10.09</t>
         </is>
       </c>
     </row>
@@ -2234,38 +3597,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>12.672</v>
+        <v>94.78</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.358</v>
+        <v>51.51</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12.636</v>
+        <v>30.59</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.758</v>
+        <v>20.82</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>12.562</v>
+        <v>17.04</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>12.552</v>
+        <v>13.83</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>12.48</v>
+        <v>12.89</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>12.26</v>
+        <v>12.92</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>12.394</v>
+        <v>12.28</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>12.506</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12.504000000000001</t>
+          <t>13.33</t>
         </is>
       </c>
     </row>
@@ -2274,38 +3637,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>15.736</v>
+        <v>88.37</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>15.646</v>
+        <v>62.7</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>15.71</v>
+        <v>47.22</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15.784</v>
+        <v>36.25</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>15.75</v>
+        <v>29.17</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>15.666</v>
+        <v>24.52</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>16.002</v>
+        <v>20.69</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>15.426</v>
+        <v>19.41</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>15.714</v>
+        <v>18.61</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>15.466</v>
+        <v>16.84</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15.451999999999998</t>
+          <t>17.66</t>
         </is>
       </c>
     </row>
@@ -2314,38 +3677,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>18.838</v>
+        <v>94.61</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>18.992</v>
+        <v>67.78</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>18.552</v>
+        <v>51.38</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>18.688</v>
+        <v>39.21</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>18.918</v>
+        <v>31.52</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>19.044</v>
+        <v>28.37</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>18.992</v>
+        <v>25.69</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>18.89</v>
+        <v>22.1</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>18.72</v>
+        <v>20.92</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>18.616</v>
+        <v>21.37</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18.846</t>
+          <t>20.419999999999998</t>
         </is>
       </c>
     </row>
@@ -2354,38 +3717,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>21.9</v>
+        <v>98.69</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>21.932</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>22.286</v>
+        <v>54.28</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>21.65</v>
+        <v>43.47</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>21.926</v>
+        <v>35.63</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>21.8</v>
+        <v>30.16</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>21.814</v>
+        <v>27.2</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>21.932</v>
+        <v>25.89</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>21.822</v>
+        <v>24.47</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>22.148</v>
+        <v>23.4</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>23.32</t>
         </is>
       </c>
     </row>
@@ -2394,38 +3757,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>24.808</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>24.598</v>
+        <v>73.8</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>24.744</v>
+        <v>55.3</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>24.984</v>
+        <v>43.93</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>24.9</v>
+        <v>37.55</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>24.916</v>
+        <v>33.19</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>24.944</v>
+        <v>31.06</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>24.51</v>
+        <v>29.3</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>25.248</v>
+        <v>28.25</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>24.97</v>
+        <v>26.83</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24.602</t>
+          <t>26.200000000000003</t>
         </is>
       </c>
     </row>
@@ -2434,38 +3797,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>27.998</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>27.652</v>
+        <v>73.83</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>28.324</v>
+        <v>56.66</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>27.982</v>
+        <v>45.95</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>28.166</v>
+        <v>39.98</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>28.062</v>
+        <v>35.4</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>27.918</v>
+        <v>33.28</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>28.174</v>
+        <v>32.17</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>28.034</v>
+        <v>30.04</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>28.324</v>
+        <v>28.98</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28.127999999999997</t>
+          <t>29.099999999999998</t>
         </is>
       </c>
     </row>
@@ -2474,38 +3837,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>31.242</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>31.08</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>31.06</v>
+        <v>57.92</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>31.43</v>
+        <v>48.29</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>31.468</v>
+        <v>41.93</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>31.328</v>
+        <v>38.51</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>31.608</v>
+        <v>35.15</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>31.424</v>
+        <v>33.87</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>31.208</v>
+        <v>33.73999999999999</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>31.89</v>
+        <v>32.24</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31.398</t>
+          <t>31.569999999999997</t>
         </is>
       </c>
     </row>
@@ -2514,38 +3877,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>33.782</v>
+        <v>90.7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>34.398</v>
+        <v>70.5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>34.35599999999999</v>
+        <v>56.88999999999999</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>34.454</v>
+        <v>49.92</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>34.414</v>
+        <v>43.87</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>34.18</v>
+        <v>40.1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>34.488</v>
+        <v>38.2</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>34.496</v>
+        <v>36.48</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>34.556</v>
+        <v>35.86</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>34.17</v>
+        <v>34.77</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>34.339999999999996</t>
+          <t>34.699999999999996</t>
         </is>
       </c>
     </row>
@@ -2554,38 +3917,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>38.102</v>
+        <v>84.28999999999999</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>37.48</v>
+        <v>67.17999999999999</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>37.63</v>
+        <v>56.57</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>37.956</v>
+        <v>49.54</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>37.844</v>
+        <v>45.36</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>37.454</v>
+        <v>42.02</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>37.494</v>
+        <v>41.39</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>37.576</v>
+        <v>40.22</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>37.156</v>
+        <v>39.08</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>37.362</v>
+        <v>39.53</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37.828</t>
+          <t>38.25</t>
         </is>
       </c>
     </row>
@@ -2594,38 +3957,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>40.424</v>
+        <v>76.98</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>40.966</v>
+        <v>63.22</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>40.654</v>
+        <v>55.08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>40.804</v>
+        <v>50.19</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>40.294</v>
+        <v>46.67</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40.77</v>
+        <v>44.89</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>40.284</v>
+        <v>42.4</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>40.854</v>
+        <v>42.31</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>40.36</v>
+        <v>41.56</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>40.708</v>
+        <v>41.49</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40.46</t>
+          <t>40.550000000000004</t>
         </is>
       </c>
     </row>
@@ -2634,38 +3997,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43.778</v>
+        <v>68.08</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43.596</v>
+        <v>59.08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44.008</v>
+        <v>53.08000000000001</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>43.46400000000001</v>
+        <v>49.41</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>43.752</v>
+        <v>48.11</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>43.772</v>
+        <v>45.89</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>43.714</v>
+        <v>45.69</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>43.652</v>
+        <v>44.71</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>43.866</v>
+        <v>45.23</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>43.852</v>
+        <v>44.62</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44.034</t>
+          <t>43.66</t>
         </is>
       </c>
     </row>
@@ -2674,38 +4037,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>47.26600000000001</v>
+        <v>59.24</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>46.89</v>
+        <v>54.67999999999999</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>46.786</v>
+        <v>51.98</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>47.062</v>
+        <v>50.17</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>47.106</v>
+        <v>48.12</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>46.734</v>
+        <v>48.59</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>46.786</v>
+        <v>47.57</v>
       </c>
       <c r="I16" s="2" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="K16" s="2" t="n">
         <v>47.12</v>
       </c>
-      <c r="J16" s="2" t="n">
-        <v>46.976</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>47.15</v>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46.632</t>
+          <t>46.89</t>
         </is>
       </c>
     </row>
@@ -2714,38 +4077,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>49.672</v>
+        <v>50.16</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>50.03</v>
+        <v>50.53</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>49.758</v>
+        <v>50.72</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>49.938</v>
+        <v>49.1</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>50.036</v>
+        <v>49.56</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>50.47000000000001</v>
+        <v>49.55</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>50.188</v>
+        <v>49.27</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>49.73</v>
+        <v>50.11</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>49.968</v>
+        <v>50.05</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>50.136</v>
+        <v>49.65</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50.184</t>
+          <t>50.339999999999996</t>
         </is>
       </c>
     </row>
@@ -2835,38 +4198,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>158.8310038119441</v>
+        <v>5.004504053648283</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>162.5487646293888</v>
+        <v>14.21262080727686</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>161.3944480309877</v>
+        <v>36.92762186115214</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>157.6292559899117</v>
+        <v>68.39945280437757</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>158.7301587301587</v>
+        <v>105.708245243129</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>161.1863313990974</v>
+        <v>155.2795031055901</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>158.6294416243655</v>
+        <v>128.2051282051282</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>155.3760099440646</v>
+        <v>139.2757660167131</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>167.897918065816</v>
+        <v>151.9756838905775</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>165.892501658925</v>
+        <v>152.4390243902439</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>160.0512163892446</t>
+          <t>169.49152542372883</t>
         </is>
       </c>
     </row>
@@ -2875,38 +4238,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>64.06149903907752</v>
+        <v>4.158436427903109</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>64.51612903225806</v>
+        <v>10.91703056768559</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>62.63701847792045</v>
+        <v>18.1653042688465</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>62.85355122564425</v>
+        <v>36.83241252302026</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>64.55777921239509</v>
+        <v>43.71584699453552</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>63.95906619763351</v>
+        <v>54.94505494505494</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>64.62035541195476</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>63.65372374283896</v>
+        <v>59.79073243647235</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>64.08202499198974</v>
+        <v>60.790273556231</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>64.1025641025641</v>
+        <v>64.93506493506493</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>62.95247088448222</t>
+          <t>65.89785831960461</t>
         </is>
       </c>
     </row>
@@ -2915,38 +4278,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>31.39388865634157</v>
+        <v>3.000300030003</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>31.80661577608143</v>
+        <v>5.93941793704217</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>31.63889474794347</v>
+        <v>9.398496240601505</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>31.52585119798235</v>
+        <v>14.12429378531074</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>32.33455486096141</v>
+        <v>20.92050209205021</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>31.53247845280639</v>
+        <v>25.14668901927913</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>32.8443179329976</v>
+        <v>28.43601895734597</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>31.99658703071673</v>
+        <v>27.95899347623486</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>31.80661577608143</v>
+        <v>30.8641975308642</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>32.13367609254499</v>
+        <v>31.51260504201681</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32.29278794402583</t>
+          <t>29.73240832507433</t>
         </is>
       </c>
     </row>
@@ -2955,38 +4318,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>23.67424242424243</v>
+        <v>3.165224730955898</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>24.2757727787668</v>
+        <v>5.824111822947001</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>23.74169040835708</v>
+        <v>9.807126511932005</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>23.51465746982286</v>
+        <v>14.40922190201729</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>23.88154752427957</v>
+        <v>17.6056338028169</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>23.90057361376673</v>
+        <v>21.69197396963123</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>24.03846153846154</v>
+        <v>23.27385570209465</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>24.46982055464927</v>
+        <v>23.21981424148606</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>24.20526060997257</v>
+        <v>24.4299674267101</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>23.98848552694706</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23.99232245681382</t>
+          <t>22.50562640660165</t>
         </is>
       </c>
     </row>
@@ -2995,38 +4358,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>12.70971021860702</v>
+        <v>2.263211497114405</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12.78281989006775</v>
+        <v>3.189792663476874</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12.73074474856779</v>
+        <v>4.235493434985176</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12.67105930055753</v>
+        <v>5.517241379310345</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>12.6984126984127</v>
+        <v>6.856359273225917</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>12.76650070215754</v>
+        <v>8.156606851549755</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>12.49843769528809</v>
+        <v>9.666505558240695</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>12.96512381693245</v>
+        <v>10.30396702730551</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>12.72750413643884</v>
+        <v>10.7469102632993</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>12.9315918789603</v>
+        <v>11.87648456057007</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12.943308309603935</t>
+          <t>11.325028312570781</t>
         </is>
       </c>
     </row>
@@ -3035,38 +4398,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>10.61683830555261</v>
+        <v>2.113941443822006</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>10.530749789385</v>
+        <v>2.950722927117144</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>10.78050884001725</v>
+        <v>3.892565200467108</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>10.70205479452055</v>
+        <v>5.10073960724305</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>10.57194206575748</v>
+        <v>6.345177664974619</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10.50199537912203</v>
+        <v>7.049700387733521</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.530749789385</v>
+        <v>7.785130400934215</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>10.58761249338274</v>
+        <v>9.049773755656108</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>10.68376068376068</v>
+        <v>9.560229445506693</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>10.74344649763644</v>
+        <v>9.358914365933552</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10.612331529236974</t>
+          <t>9.79431929480901</t>
         </is>
       </c>
     </row>
@@ -3075,38 +4438,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>9.1324200913242</v>
+        <v>2.026547775863816</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>9.119095385737737</v>
+        <v>2.773925104022192</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8.974243919949744</v>
+        <v>3.684598378776714</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>9.237875288683602</v>
+        <v>4.600874166091558</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.121590805436467</v>
+        <v>5.613247263541959</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.174311926605505</v>
+        <v>6.63129973474801</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>9.168423947923351</v>
+        <v>7.352941176470588</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>9.119095385737737</v>
+        <v>7.72499034376207</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>9.165062780680048</v>
+        <v>8.173273395995096</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>9.030160736861117</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9.136592051164916</t>
+          <t>8.576329331046312</t>
         </is>
       </c>
     </row>
@@ -3115,38 +4478,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8.061915511125443</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8.130742336775347</v>
+        <v>2.710027100271003</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8.082767539605561</v>
+        <v>3.616636528028933</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>8.005123278898495</v>
+        <v>4.552697473252902</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.032128514056225</v>
+        <v>5.326231691078562</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.026970621287527</v>
+        <v>6.02591141910214</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>8.017960230917256</v>
+        <v>6.43915003219575</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>8.159934720522235</v>
+        <v>6.825938566552901</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>7.921419518377693</v>
+        <v>7.079646017699115</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>8.009611533840609</v>
+        <v>7.454342154304882</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8.129420372327454</t>
+          <t>7.633587786259542</t>
         </is>
       </c>
     </row>
@@ -3155,38 +4518,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.143367383384527</v>
+        <v>2.02552157180474</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.232749891508751</v>
+        <v>2.708925910876338</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.061149555147578</v>
+        <v>3.529827038475115</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>7.147451933385748</v>
+        <v>4.352557127312296</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.100759781296599</v>
+        <v>5.002501250625313</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.127075760815337</v>
+        <v>5.649717514124294</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>7.163836951070993</v>
+        <v>6.009615384615385</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>7.098743522396536</v>
+        <v>6.216972334473112</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>7.134194192765927</v>
+        <v>6.657789613848203</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>7.061149555147578</v>
+        <v>6.901311249137336</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7.1103526734926055</t>
+          <t>6.8728522336769755</t>
         </is>
       </c>
     </row>
@@ -3195,38 +4558,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>6.401638819537801</v>
+        <v>2.082465639316951</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.435006435006435</v>
+        <v>2.760143527463428</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6.43915003219575</v>
+        <v>3.453038674033149</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6.363347120585428</v>
+        <v>4.141644232760406</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.355662895640015</v>
+        <v>4.769854519437157</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.384065372829418</v>
+        <v>5.193456245131134</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>6.327512022272843</v>
+        <v>5.689900426742532</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>6.364562118126273</v>
+        <v>5.90493061706525</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>6.40861317610869</v>
+        <v>5.927682276229994</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.271558482282847</v>
+        <v>6.20347394540943</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6.36983247340595</t>
+          <t>6.335128286347799</t>
         </is>
       </c>
     </row>
@@ -3235,38 +4598,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5.920312592504884</v>
+        <v>2.205071664829107</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.814291528577243</v>
+        <v>2.836879432624114</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5.821399464431249</v>
+        <v>3.515556336790297</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5.804841237592152</v>
+        <v>4.006410256410256</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.811588307084326</v>
+        <v>4.558924093913836</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.851375073142188</v>
+        <v>4.987531172069826</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>5.799118533982835</v>
+        <v>5.235602094240837</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>5.797773654916512</v>
+        <v>5.482456140350878</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>5.787706910522052</v>
+        <v>5.577244841048522</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>5.85308750365818</v>
+        <v>5.752085130859936</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5.824111822947001</t>
+          <t>5.763688760806916</t>
         </is>
       </c>
     </row>
@@ -3275,38 +4638,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5.249068290378458</v>
+        <v>2.372760707082691</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.336179295624333</v>
+        <v>2.977076510866329</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5.314908317831518</v>
+        <v>3.53544281421248</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5.269259142164612</v>
+        <v>4.037141703673799</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.284853609555015</v>
+        <v>4.409171075837743</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.339883590537727</v>
+        <v>4.75963826749167</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>5.334186803221849</v>
+        <v>4.832085044696787</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>5.322546306152864</v>
+        <v>4.972650422675286</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>5.382710733125202</v>
+        <v>5.117707267144319</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>5.353032492907232</v>
+        <v>5.059448520111308</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5.287088928835783</t>
+          <t>5.228758169934641</t>
         </is>
       </c>
     </row>
@@ -3315,38 +4678,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>4.947555907381753</v>
+        <v>2.598077422707197</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.88209734902114</v>
+        <v>3.163555836760519</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4.919565110444236</v>
+        <v>3.631082062454611</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4.901480247034605</v>
+        <v>3.984857541342897</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.963518141658808</v>
+        <v>4.285408185129634</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.905567819475104</v>
+        <v>4.455335263978615</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4.964750273061265</v>
+        <v>4.716981132075472</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>4.895481470602634</v>
+        <v>4.727014890096904</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>4.955401387512389</v>
+        <v>4.812319538017324</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>4.913039206052864</v>
+        <v>4.820438659918053</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4.9431537320810675</t>
+          <t>4.932182490752158</t>
         </is>
       </c>
     </row>
@@ -3355,38 +4718,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>4.568504728402394</v>
+        <v>2.937720329024677</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.587576841912102</v>
+        <v>3.385240352064997</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4.544628249409199</v>
+        <v>3.767897513187641</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4.601509295048776</v>
+        <v>4.04776361060514</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.571219601389651</v>
+        <v>4.157139887757223</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.569130951293064</v>
+        <v>4.358247984310308</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4.575193301917006</v>
+        <v>4.377325454147516</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>4.581691560524146</v>
+        <v>4.473272198613286</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>4.55933980759586</v>
+        <v>4.421843908910016</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>4.560795402718234</v>
+        <v>4.482294935006723</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4.54194486078939</t>
+          <t>4.580852038479157</t>
         </is>
       </c>
     </row>
@@ -3395,38 +4758,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4.231371387466678</v>
+        <v>3.37609723160027</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.265301770100234</v>
+        <v>3.65764447695684</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4.274783054759971</v>
+        <v>3.847633705271257</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>4.249713144362755</v>
+        <v>3.986446083316723</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.245743641998896</v>
+        <v>4.156275976724855</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.279539521547481</v>
+        <v>4.116073266104137</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4.274783054759971</v>
+        <v>4.204330460374186</v>
       </c>
       <c r="I16" s="2" t="n">
+        <v>4.223864836325237</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>4.264392324093817</v>
+      </c>
+      <c r="K16" s="2" t="n">
         <v>4.244482173174872</v>
       </c>
-      <c r="J16" s="2" t="n">
-        <v>4.2574931880109</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>4.241781548250265</v>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4.2889003259564245</t>
+          <t>4.265301770100234</t>
         </is>
       </c>
     </row>
@@ -3435,38 +4798,1399 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4.026413271058141</v>
+        <v>3.987240829346093</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.997601439136518</v>
+        <v>3.958044725905403</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4.019454158125327</v>
+        <v>3.943217665615142</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4.004966158035964</v>
+        <v>4.073319755600815</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.997122072108082</v>
+        <v>4.035512510088782</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.96275014860313</v>
+        <v>4.036326942482341</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>3.985016338566988</v>
+        <v>4.05926527298559</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>4.021717273275689</v>
+        <v>3.991219317501497</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>4.002561639449247</v>
+        <v>3.996003996003996</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>3.989149513323759</v>
+        <v>4.028197381671702</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3.9853339709867686</t>
+          <t>3.972983710766786</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0 noise level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>99.68000000000001</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>99.92</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>96.03</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>5.970000000000001</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6.370000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>97.58</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>7.689999999999999</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>8.959999999999999</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>98.63</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.639999999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>88.16000000000001</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15.920000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>91.62</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>98.84</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>99.65000000000001</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>99.73</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>26.490000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>97.48</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>34.23999999999999</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35.260000000000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>87.33999999999999</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>35.260000000000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>84.84</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>36.77</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>37.83000000000001</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>37.81</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>80.62</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>38.69</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>39.160000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>40.73</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>40.150000000000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45.89</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>42.23</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>46.47</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>59.17</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>46.76000000000001</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>47.26000000000001</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>46.83</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>49.59</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>49.28</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>49.24</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>47.58</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>48.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>50.14999999999999</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>50.42</t>
         </is>
       </c>
     </row>
